--- a/biology/Botanique/Boletus_aestivalis/Boletus_aestivalis.xlsx
+++ b/biology/Botanique/Boletus_aestivalis/Boletus_aestivalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cèpe d'été
 Boletus reticulatus, auparavant Boletus aestivalis, le Cèpe d'été, est une espèce de champignons (Fungi) comestibles basidiomycètes de la famille des Boletaceae, présente dans l'hémisphère nord. Il fait partie, avec Boletus aereus, Boletus edulis et Boletus pinophilus, des quatre espèces de bolets "nobles" ; les Cèpes. Il est caractérisé par son chapeau sec de couleur brun terne uniforme, son réseau souvent très étendu et sa période de pousse typiquement estivale (mai à fin septembre en moyenne). Très semblable à Boletus edulis, il s'en différencie morphologiquement, entre autres, par l'absence de chair sous-cuticulaire rose ainsi que sa tendance thermophile.
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus reticulatus Schaeff.[1].
-Synonymes
-Boletus reticulatus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Boletus reticulatus Schaeff..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus reticulatus a pour synonymes :
 Boletus aestivalis (Paulet) Fr.
 Boletus carpinaceus Velen.
 Boletus edulis f. reticulatus (Boud.) Konrad &amp; Maubl.
@@ -535,47 +584,154 @@
 Tubiporus aestivalis Paulet
 Versipellis aestivalis (Paulet) Quél.
 Xerocomus reticulatus (Schaeff.) Anon.
-Phylogénie
-Le naturaliste allemand Jacob Christian Schäffer a décrit le Cèpe d'été comme Boletus reticulatus en 1774, dans sa série sur les champignons de Bavière et du Palatinat Fungorum qui in Bavaria et Palatinatu circa Ratisbonam nascuntur icones[2]. Le mycologue français Jean-Jacques Paulet l'a décrit comme "Le grand Mousseux" (Tubiporus aestivalis) en 1793[3]. Boletus reticulatus est classé dans le genre Boletus section Boletus, aux côtés d'espèces proches telles que B. aereus, B. edulis et B. pinophilus. Une étude génétique des quatre espèces européennes a démontré que B. reticulatus était apparenté à B. aereus[4].
-Étymologie
-L'épithète spécifique de son ancien nom aestivalis, du latin aestas, fait réfèrence à l'été, sa période de pousse de prédilection, le Cèpe d'été étant une espèce thermophile, appréciant les fortes chaleurs. L'épithète spécifique de son nom actuel reticulatus fait quant à lui réfèrence au réseau ornant le pied de cette espèce. Le réseau se nomme aussi réticule. Un pied orné d'un réseau est dit "réticulé". Bien que les autres Cèpes soient également réticulés, le réseau de Boletus reticulatus est souvent bien plus étendu que celui des autres espèces de Cèpes, descendant assez souvent jusqu'au bas du pied, alors que par exemple, chez le Cèpe de Bordeaux (Boletus edulis), son réseau s'arrête pour sa part typiquement vers la moitié de son pied (stipe).
-Noms vulgaires et vernaculaires
-Le nom normalisé français de cette espèce est le suivant : Cèpe d'été, de l'ancien nom scientifique Boletus aestivalis[5]. Il a pour nom vulgaire moins utilisé Cèpe réticulé. On le connait aussi occasionnellement sous les dénominations, vagues et ambiguës, de Cèpe de printemps, Cèpe de fleur ou Cèpe fleur, des appellations assez arbitraires et inexactes quant à l'espèce de Cèpe réellement désignée.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Boletus_aestivalis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Boletus_aestivalis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le naturaliste allemand Jacob Christian Schäffer a décrit le Cèpe d'été comme Boletus reticulatus en 1774, dans sa série sur les champignons de Bavière et du Palatinat Fungorum qui in Bavaria et Palatinatu circa Ratisbonam nascuntur icones. Le mycologue français Jean-Jacques Paulet l'a décrit comme "Le grand Mousseux" (Tubiporus aestivalis) en 1793. Boletus reticulatus est classé dans le genre Boletus section Boletus, aux côtés d'espèces proches telles que B. aereus, B. edulis et B. pinophilus. Une étude génétique des quatre espèces européennes a démontré que B. reticulatus était apparenté à B. aereus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique de son ancien nom aestivalis, du latin aestas, fait réfèrence à l'été, sa période de pousse de prédilection, le Cèpe d'été étant une espèce thermophile, appréciant les fortes chaleurs. L'épithète spécifique de son nom actuel reticulatus fait quant à lui réfèrence au réseau ornant le pied de cette espèce. Le réseau se nomme aussi réticule. Un pied orné d'un réseau est dit "réticulé". Bien que les autres Cèpes soient également réticulés, le réseau de Boletus reticulatus est souvent bien plus étendu que celui des autres espèces de Cèpes, descendant assez souvent jusqu'au bas du pied, alors que par exemple, chez le Cèpe de Bordeaux (Boletus edulis), son réseau s'arrête pour sa part typiquement vers la moitié de son pied (stipe).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom normalisé français de cette espèce est le suivant : Cèpe d'été, de l'ancien nom scientifique Boletus aestivalis. Il a pour nom vulgaire moins utilisé Cèpe réticulé. On le connait aussi occasionnellement sous les dénominations, vagues et ambiguës, de Cèpe de printemps, Cèpe de fleur ou Cèpe fleur, des appellations assez arbitraires et inexactes quant à l'espèce de Cèpe réellement désignée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cèpe d'été est un bolet. Les bolets sont des champignons dont l’hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques morphologiques de Boletus reticulatus, le Cèpe d'été, sont les suivantes :
-Son chapeau mesure 4 à 20 cm, il est sec, plutôt velouté voire craquelé par temps sec, parfois pruineux chez les jeunes, de couleur croûte de pain, brun tabac clair, brun roussâtre à brun châtain chaud[6].
-L'hyménophore présente des tubes blancs puis jaunes et enfin olivâtres. Les pores sont serrés, concolores aux tubes[6].
-Son stipe mesure 5 à 15 cm x 2 à 7 cm, il est beige, avec un fin réseau longtemps blanc très marqué qui peut descendre jusqu'à la base[6].
-La chair est entièrement blanche, immuable (ne changeant pas de couleur à la coupe). Sa saveur est douce et son odeur est très agréable, de forêt humide[6].
+Son chapeau mesure 4 à 20 cm, il est sec, plutôt velouté voire craquelé par temps sec, parfois pruineux chez les jeunes, de couleur croûte de pain, brun tabac clair, brun roussâtre à brun châtain chaud.
+L'hyménophore présente des tubes blancs puis jaunes et enfin olivâtres. Les pores sont serrés, concolores aux tubes.
+Son stipe mesure 5 à 15 cm x 2 à 7 cm, il est beige, avec un fin réseau longtemps blanc très marqué qui peut descendre jusqu'à la base.
+La chair est entièrement blanche, immuable (ne changeant pas de couleur à la coupe). Sa saveur est douce et son odeur est très agréable, de forêt humide.
 	Principaux caractères distinctifs
 			Chapeau pruineux, au moins chez les jeunes sujets.
 			Chapeau de couleur brunâtre terne plus au moins uniforme, sec.
@@ -583,8 +739,43 @@
 			Pied orné d'un réseau souvent entièrement étendu.
 			Chair blanche, immuable.
 			Il n'est pas rare de trouver des exemplaires au chapeau craquelé par la chaleur et la sécheresse d'été.
-Caractéristiques microscopiques
-Ses spores mesurent 12 à 15 μm x 4 à 6 μm, elles sont allongées-fusoïdes[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_aestivalis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 12 à 15 μm x 4 à 6 μm, elles sont allongées-fusoïdes.
 </t>
         </is>
       </c>
